--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna3-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H2">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I2">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J2">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N2">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P2">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q2">
-        <v>1.416388487857333</v>
+        <v>0.6427574412494445</v>
       </c>
       <c r="R2">
-        <v>12.747496390716</v>
+        <v>5.784816971245</v>
       </c>
       <c r="S2">
-        <v>0.1371154085862218</v>
+        <v>0.06672338634960308</v>
       </c>
       <c r="T2">
-        <v>0.1371154085862218</v>
+        <v>0.06672338634960309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H3">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I3">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J3">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P3">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q3">
-        <v>2.466104025588666</v>
+        <v>1.895547527208111</v>
       </c>
       <c r="R3">
-        <v>22.194936230298</v>
+        <v>17.059927744873</v>
       </c>
       <c r="S3">
-        <v>0.2387345449243554</v>
+        <v>0.1967730622551558</v>
       </c>
       <c r="T3">
-        <v>0.2387345449243554</v>
+        <v>0.1967730622551558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H4">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I4">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J4">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N4">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P4">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q4">
-        <v>0.5681903026653332</v>
+        <v>1.483203843281333</v>
       </c>
       <c r="R4">
-        <v>5.113712723987999</v>
+        <v>13.348834589532</v>
       </c>
       <c r="S4">
-        <v>0.05500443287458681</v>
+        <v>0.1539684750721851</v>
       </c>
       <c r="T4">
-        <v>0.0550044328745868</v>
+        <v>0.1539684750721851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H5">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I5">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J5">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N5">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P5">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q5">
-        <v>0.7869060534866666</v>
+        <v>0.5104448920508888</v>
       </c>
       <c r="R5">
-        <v>7.08215448138</v>
+        <v>4.594004028457999</v>
       </c>
       <c r="S5">
-        <v>0.07617750777261585</v>
+        <v>0.05298828073664458</v>
       </c>
       <c r="T5">
-        <v>0.07617750777261584</v>
+        <v>0.05298828073664458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.314914</v>
+        <v>0.2420556666666667</v>
       </c>
       <c r="H6">
-        <v>0.944742</v>
+        <v>0.726167</v>
       </c>
       <c r="I6">
-        <v>0.6052201520958829</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="J6">
-        <v>0.6052201520958828</v>
+        <v>0.5314769098578004</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N6">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P6">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q6">
-        <v>1.014274906228667</v>
+        <v>0.587851470268111</v>
       </c>
       <c r="R6">
-        <v>9.128474156058001</v>
+        <v>5.290663232412999</v>
       </c>
       <c r="S6">
-        <v>0.09818825793810294</v>
+        <v>0.06102370544421182</v>
       </c>
       <c r="T6">
-        <v>0.09818825793810294</v>
+        <v>0.06102370544421183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.616247</v>
       </c>
       <c r="I7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J7">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.497699333333333</v>
+        <v>2.655411666666667</v>
       </c>
       <c r="N7">
-        <v>13.493098</v>
+        <v>7.966235</v>
       </c>
       <c r="O7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118981</v>
       </c>
       <c r="P7">
-        <v>0.2265545985397048</v>
+        <v>0.1255433399118982</v>
       </c>
       <c r="Q7">
-        <v>0.9238979070228889</v>
+        <v>0.5454631577827778</v>
       </c>
       <c r="R7">
-        <v>8.315081163205999</v>
+        <v>4.909168420045</v>
       </c>
       <c r="S7">
-        <v>0.08943918995348299</v>
+        <v>0.05662345805824811</v>
       </c>
       <c r="T7">
-        <v>0.08943918995348299</v>
+        <v>0.05662345805824812</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.616247</v>
       </c>
       <c r="I8">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J8">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.3944590147859676</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="P8">
-        <v>0.3944590147859677</v>
+        <v>0.3702382146908386</v>
       </c>
       <c r="Q8">
         <v>1.608618233821444</v>
@@ -948,10 +948,10 @@
         <v>14.477564104393</v>
       </c>
       <c r="S8">
-        <v>0.1557244698616122</v>
+        <v>0.1669874963962188</v>
       </c>
       <c r="T8">
-        <v>0.1557244698616123</v>
+        <v>0.1669874963962188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.616247</v>
       </c>
       <c r="I9">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J9">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.804271333333333</v>
+        <v>6.127532</v>
       </c>
       <c r="N9">
-        <v>5.412813999999999</v>
+        <v>18.382596</v>
       </c>
       <c r="O9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608144</v>
       </c>
       <c r="P9">
-        <v>0.09088334663693197</v>
+        <v>0.2896992742608145</v>
       </c>
       <c r="Q9">
-        <v>0.3706255987842222</v>
+        <v>1.258691070801333</v>
       </c>
       <c r="R9">
-        <v>3.335630389057999</v>
+        <v>11.328219637212</v>
       </c>
       <c r="S9">
-        <v>0.03587891376234517</v>
+        <v>0.1306622455410516</v>
       </c>
       <c r="T9">
-        <v>0.03587891376234516</v>
+        <v>0.1306622455410517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.616247</v>
       </c>
       <c r="I10">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J10">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.498796666666667</v>
+        <v>2.108791333333333</v>
       </c>
       <c r="N10">
-        <v>7.49639</v>
+        <v>6.326373999999999</v>
       </c>
       <c r="O10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963861</v>
       </c>
       <c r="P10">
-        <v>0.1258674343688201</v>
+        <v>0.09970006175963862</v>
       </c>
       <c r="Q10">
-        <v>0.5132919831477778</v>
+        <v>0.4331787775975555</v>
       </c>
       <c r="R10">
-        <v>4.61962784833</v>
+        <v>3.898608998378</v>
       </c>
       <c r="S10">
-        <v>0.04968992659620425</v>
+        <v>0.04496743729626245</v>
       </c>
       <c r="T10">
-        <v>0.04968992659620425</v>
+        <v>0.04496743729626246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>0.616247</v>
       </c>
       <c r="I11">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="J11">
-        <v>0.3947798479041172</v>
+        <v>0.4510271759376837</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,338 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.220799666666667</v>
+        <v>2.428579666666666</v>
       </c>
       <c r="N11">
-        <v>9.662399000000001</v>
+        <v>7.285739</v>
       </c>
       <c r="O11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="P11">
-        <v>0.1622356056685755</v>
+        <v>0.1148191093768101</v>
       </c>
       <c r="Q11">
-        <v>0.6616027107281112</v>
+        <v>0.4988683112814444</v>
       </c>
       <c r="R11">
-        <v>5.954424396553001</v>
+        <v>4.489814801533</v>
       </c>
       <c r="S11">
-        <v>0.06404734773047258</v>
+        <v>0.05178653864590267</v>
       </c>
       <c r="T11">
-        <v>0.06404734773047258</v>
+        <v>0.05178653864590268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H12">
+        <v>0.023905</v>
+      </c>
+      <c r="I12">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J12">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.655411666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.966235</v>
+      </c>
+      <c r="O12">
+        <v>0.1255433399118981</v>
+      </c>
+      <c r="P12">
+        <v>0.1255433399118982</v>
+      </c>
+      <c r="Q12">
+        <v>0.02115920529722222</v>
+      </c>
+      <c r="R12">
+        <v>0.190432847675</v>
+      </c>
+      <c r="S12">
+        <v>0.00219649550404695</v>
+      </c>
+      <c r="T12">
+        <v>0.002196495504046951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H13">
+        <v>0.023905</v>
+      </c>
+      <c r="I13">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J13">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N13">
+        <v>23.493119</v>
+      </c>
+      <c r="O13">
+        <v>0.3702382146908386</v>
+      </c>
+      <c r="P13">
+        <v>0.3702382146908386</v>
+      </c>
+      <c r="Q13">
+        <v>0.06240033441055555</v>
+      </c>
+      <c r="R13">
+        <v>0.561603009695</v>
+      </c>
+      <c r="S13">
+        <v>0.006477656039464061</v>
+      </c>
+      <c r="T13">
+        <v>0.006477656039464061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H14">
+        <v>0.023905</v>
+      </c>
+      <c r="I14">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J14">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.127532</v>
+      </c>
+      <c r="N14">
+        <v>18.382596</v>
+      </c>
+      <c r="O14">
+        <v>0.2896992742608144</v>
+      </c>
+      <c r="P14">
+        <v>0.2896992742608145</v>
+      </c>
+      <c r="Q14">
+        <v>0.04882621748666666</v>
+      </c>
+      <c r="R14">
+        <v>0.43943595738</v>
+      </c>
+      <c r="S14">
+        <v>0.005068553647577738</v>
+      </c>
+      <c r="T14">
+        <v>0.00506855364757774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H15">
+        <v>0.023905</v>
+      </c>
+      <c r="I15">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J15">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.108791333333333</v>
+      </c>
+      <c r="N15">
+        <v>6.326373999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.09970006175963861</v>
+      </c>
+      <c r="P15">
+        <v>0.09970006175963862</v>
+      </c>
+      <c r="Q15">
+        <v>0.01680355227444444</v>
+      </c>
+      <c r="R15">
+        <v>0.15123197047</v>
+      </c>
+      <c r="S15">
+        <v>0.001744343726731576</v>
+      </c>
+      <c r="T15">
+        <v>0.001744343726731577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007968333333333332</v>
+      </c>
+      <c r="H16">
+        <v>0.023905</v>
+      </c>
+      <c r="I16">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="J16">
+        <v>0.01749591420451593</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.428579666666666</v>
+      </c>
+      <c r="N16">
+        <v>7.285739</v>
+      </c>
+      <c r="O16">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="P16">
+        <v>0.1148191093768101</v>
+      </c>
+      <c r="Q16">
+        <v>0.01935173231055555</v>
+      </c>
+      <c r="R16">
+        <v>0.174165590795</v>
+      </c>
+      <c r="S16">
+        <v>0.002008865286695599</v>
+      </c>
+      <c r="T16">
+        <v>0.0020088652866956</v>
       </c>
     </row>
   </sheetData>
